--- a/municipal/ENG/Education/Preschool and Education Institutions/Adjara A.R/C. Batumi.xlsx
+++ b/municipal/ENG/Education/Preschool and Education Institutions/Adjara A.R/C. Batumi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Social Statistic\სკოლამდელი აღზრდისა და განათლების დაწესებულებები\აჭარა\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\Social Statistic\Preschool and Education Institutions\Adjara A.R\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -95,7 +95,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>1</t>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>municipality</t>
     </r>
   </si>
 </sst>
@@ -609,7 +619,7 @@
   <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
